--- a/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
@@ -20,47 +20,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">nombre_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varianza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rango_práctico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam_muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potencia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquina de via frente al bloque 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Maps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa Coordenadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,19 +144,31 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -142,19 +178,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,11 +214,116 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6.261191</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-75.576928</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>43578</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.507638888888889</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6.261256</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-75.576927</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>43578</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6.261256</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-75.576455</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>43579</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.453472222222222</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6.261254</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-75.576927</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.261262</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-75.576931</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6.261254</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-75.576928</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">Lugar</t>
   </si>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">App</t>
   </si>
   <si>
-    <t xml:space="preserve">Esquina de via frente al bloque 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referencia</t>
+    <t xml:space="preserve">Esquina de via frente al bloque 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referencia 1</t>
   </si>
   <si>
     <t xml:space="preserve">Google Maps.</t>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Toma 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toma 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toma 5</t>
   </si>
 </sst>
 </file>
@@ -79,7 +73,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,6 +94,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +156,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,7 +180,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,10 +219,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>6.261191</v>
+        <v>6.26119</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-75.576928</v>
+        <v>-75.576922</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -288,43 +287,15 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>6.261254</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>-75.576927</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.261262</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>-75.576931</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>6.261254</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>-75.576928</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Lugar</t>
   </si>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,11 +95,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +151,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,7 +175,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,8 +282,23 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>6.261256</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-75.576454</v>
+      </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>43579</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.506944444444444</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/CabreraTorresKennethRoy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">Lugar</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Toma 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma 4</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,26 +286,46 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>6.261256</v>
+        <v>6.260953</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-75.576454</v>
+        <v>-75.576933</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>43579</v>
+        <v>43584</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.506944444444444</v>
+        <v>0.545138888888889</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.261105</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-75.576876</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>43585</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
